--- a/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 4 - v4.3.xlsx
+++ b/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 4 - v4.3.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Correlation analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F62FA-71CA-3443-A2C8-274C1F46F65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC6A2ED-DDC4-F34E-9C3F-3ACD0EBB16FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="1460" windowWidth="26780" windowHeight="16540" xr2:uid="{78A3BD87-724F-3541-8C5C-9B9783AF8C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="sorted by branch cov" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'sorted by branch cov'!$A$1:$A$319</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'sorted by branch cov'!$B$1:$B$319</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'sorted by branch cov'!$A$1:$A$319</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'sorted by branch cov'!$B$1:$B$319</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1083,10 +1090,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1112,8 +1126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,6 +1144,5860 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlation between branch coverage and complexity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'sorted by branch cov'!$A$1:$A$319</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="319"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16666666999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21428570999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38095237999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41304348000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44117646999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.55555555999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.55555555999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.57692308000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59090909000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.63666666999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.64285714000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.64285714000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64285714000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.66216216000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.69230769000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70422534999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70588234999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.70588234999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73076923000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73809524000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.73913043</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.74137931000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.77272726999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.77272726999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.77777777999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.77777777999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.77931033999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.79166667000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.85135134999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.85714285999999995</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.88461537999999995</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.88627451000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.88636364000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.88888889000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.89189189000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.89583332999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.90243901999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.90476190000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.90540540999999997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.90909090999999997</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.91911765000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.92307691999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.92592593000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.93333332999999996</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.94444444000000005</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.94680850999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.95161289999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.95454545000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.95454545000000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.96341463000000005</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.97222222000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.97619047999999997</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'sorted by branch cov'!$B$1:$B$319</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="319"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1328-974F-B203-C15EA9AF4D50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="625330560"/>
+        <c:axId val="625220176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="625330560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Branch coverage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625220176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="625220176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Complexity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625330560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlation between branch coverage and complexity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'sorted by branch cov'!$A$1:$A$319</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="319"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16666666999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21428570999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38095237999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41304348000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44117646999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.55555555999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.55555555999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.57692308000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59090909000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.63666666999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.64285714000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.64285714000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64285714000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.66216216000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.69230769000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70422534999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70588234999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.70588234999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73076923000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73809524000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.73913043</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.74137931000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.77272726999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.77272726999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.77777777999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.77777777999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.77931033999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.79166667000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.83333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.85135134999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.85714285999999995</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.88461537999999995</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.88627451000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.88636364000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.88888889000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.89189189000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.89583332999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.90243901999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.90476190000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.90540540999999997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.90909090999999997</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.91666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.91911765000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.92307691999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.92592593000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.92857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.93333332999999996</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.94444444000000005</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.94680850999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.95161289999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.95454545000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.95454545000000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.96341463000000005</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.97222222000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.97619047999999997</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'sorted by branch cov'!$B$1:$B$319</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="319"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0884-574B-A8F8-A954C4825CF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="625330560"/>
+        <c:axId val="625220176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="625330560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Branch coverage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625220176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="625220176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Complexity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625330560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B547FD8B-FC7C-DA45-AC92-E981D5F2A2A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82465403-28ED-1143-B09A-70BBB42644E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1430,8 +7299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1A75EE-B6FB-A748-903A-3A52879C6F4C}">
   <dimension ref="A1:L322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="K323" sqref="K323"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14245,11 +20114,2583 @@
         <v>347</v>
       </c>
       <c r="L322">
-        <f>1-((6*L321)/(320^3-320))</f>
-        <v>-0.32480430411918082</v>
+        <f>1-((6*L321)/(319^3-319))</f>
+        <v>-0.33730245793162594</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FBCB04-9EF0-8C4D-AF3B-478D3E07D5E9}">
+  <dimension ref="A1:B319"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B319"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0.16666666999999999</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0.21428570999999999</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0.33333332999999998</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0.38095237999999998</v>
+      </c>
+      <c r="B22" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0.41304348000000002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0.42857142999999998</v>
+      </c>
+      <c r="B24" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0.42857142999999998</v>
+      </c>
+      <c r="B25" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0.44117646999999999</v>
+      </c>
+      <c r="B26" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B46" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>0.55555555999999995</v>
+      </c>
+      <c r="B47" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>0.55555555999999995</v>
+      </c>
+      <c r="B48" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="B49" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>0.57692308000000003</v>
+      </c>
+      <c r="B50" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>0.58333332999999998</v>
+      </c>
+      <c r="B51" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>0.59090909000000003</v>
+      </c>
+      <c r="B52" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B55" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B56" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B57" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B58" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>0.63666666999999999</v>
+      </c>
+      <c r="B59" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>0.64285714000000005</v>
+      </c>
+      <c r="B60" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>0.64285714000000005</v>
+      </c>
+      <c r="B61" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>0.64285714000000005</v>
+      </c>
+      <c r="B62" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>0.66216216000000006</v>
+      </c>
+      <c r="B63" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>0.66666667000000002</v>
+      </c>
+      <c r="B64" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>0.66666667000000002</v>
+      </c>
+      <c r="B65" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="B66" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>0.69230769000000003</v>
+      </c>
+      <c r="B67" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>0.70422534999999997</v>
+      </c>
+      <c r="B71" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>0.70588234999999999</v>
+      </c>
+      <c r="B72" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>0.70588234999999999</v>
+      </c>
+      <c r="B73" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>0.73076923000000005</v>
+      </c>
+      <c r="B74" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>0.73809524000000004</v>
+      </c>
+      <c r="B75" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>0.73913043</v>
+      </c>
+      <c r="B76" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>0.74137931000000001</v>
+      </c>
+      <c r="B77" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B78" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B80" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B81" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B82" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B83" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B84" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B86" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B87" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B88" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B89" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B90" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>0.77272726999999997</v>
+      </c>
+      <c r="B91" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>0.77272726999999997</v>
+      </c>
+      <c r="B92" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>0.77777777999999997</v>
+      </c>
+      <c r="B94" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>0.77777777999999997</v>
+      </c>
+      <c r="B95" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>0.77931033999999999</v>
+      </c>
+      <c r="B96" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>0.79166667000000002</v>
+      </c>
+      <c r="B97" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="B101" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>0.83333332999999998</v>
+      </c>
+      <c r="B102" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>0.83333332999999998</v>
+      </c>
+      <c r="B103" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>0.83333332999999998</v>
+      </c>
+      <c r="B104" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>0.83333332999999998</v>
+      </c>
+      <c r="B105" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>0.83333332999999998</v>
+      </c>
+      <c r="B106" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>0.83333332999999998</v>
+      </c>
+      <c r="B107" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>0.83333332999999998</v>
+      </c>
+      <c r="B108" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>0.83333332999999998</v>
+      </c>
+      <c r="B109" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="B110" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="B111" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>0.85135134999999995</v>
+      </c>
+      <c r="B112" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>0.85714285999999995</v>
+      </c>
+      <c r="B113" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B114" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B115" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B116" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B117" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B118" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B119" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B120" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B121" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B122" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B123" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>0.88461537999999995</v>
+      </c>
+      <c r="B124" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>0.88627451000000002</v>
+      </c>
+      <c r="B125" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>0.88636364000000001</v>
+      </c>
+      <c r="B126" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>0.88888889000000004</v>
+      </c>
+      <c r="B127" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>0.89189189000000002</v>
+      </c>
+      <c r="B128" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>0.89583332999999998</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B130" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B131" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B132" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B133" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B134" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B135" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B136" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B137" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B138" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B139" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B140" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>0.90243901999999998</v>
+      </c>
+      <c r="B141" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>0.90476190000000001</v>
+      </c>
+      <c r="B142" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>0.90540540999999997</v>
+      </c>
+      <c r="B143" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>0.90909090999999997</v>
+      </c>
+      <c r="B144" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="B145" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>0.91666667000000002</v>
+      </c>
+      <c r="B146" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>0.91666667000000002</v>
+      </c>
+      <c r="B147" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>0.91666667000000002</v>
+      </c>
+      <c r="B148" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>0.91666667000000002</v>
+      </c>
+      <c r="B149" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>0.91666667000000002</v>
+      </c>
+      <c r="B150" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>0.91666667000000002</v>
+      </c>
+      <c r="B151" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>0.91666667000000002</v>
+      </c>
+      <c r="B152" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>0.91666667000000002</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>0.91911765000000001</v>
+      </c>
+      <c r="B154" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>0.921875</v>
+      </c>
+      <c r="B155" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>0.92307691999999997</v>
+      </c>
+      <c r="B156" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>0.92592593000000001</v>
+      </c>
+      <c r="B157" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>0.92857142999999998</v>
+      </c>
+      <c r="B158" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>0.92857142999999998</v>
+      </c>
+      <c r="B159" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>0.92857142999999998</v>
+      </c>
+      <c r="B160" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>0.92857142999999998</v>
+      </c>
+      <c r="B161" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>0.92857142999999998</v>
+      </c>
+      <c r="B162" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>0.92857142999999998</v>
+      </c>
+      <c r="B163" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>0.92857142999999998</v>
+      </c>
+      <c r="B164" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>0.93333332999999996</v>
+      </c>
+      <c r="B165" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="B166" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>0.94444444000000005</v>
+      </c>
+      <c r="B167" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>0.94680850999999999</v>
+      </c>
+      <c r="B168" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B169" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>0.95161289999999998</v>
+      </c>
+      <c r="B170" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>0.95454545000000002</v>
+      </c>
+      <c r="B171" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>0.95454545000000002</v>
+      </c>
+      <c r="B172" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>0.96341463000000005</v>
+      </c>
+      <c r="B173" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>0.97222222000000003</v>
+      </c>
+      <c r="B174" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>0.97619047999999997</v>
+      </c>
+      <c r="B175" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>1</v>
+      </c>
+      <c r="B176" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>1</v>
+      </c>
+      <c r="B177" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
+      <c r="B178" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
+      <c r="B179" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>1</v>
+      </c>
+      <c r="B180" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>1</v>
+      </c>
+      <c r="B181" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>1</v>
+      </c>
+      <c r="B182" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+      <c r="B183" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>1</v>
+      </c>
+      <c r="B184" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>1</v>
+      </c>
+      <c r="B185" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
+      <c r="B187" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>1</v>
+      </c>
+      <c r="B188" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
+      <c r="B190" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>1</v>
+      </c>
+      <c r="B191" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>1</v>
+      </c>
+      <c r="B193" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
+      <c r="B194" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>1</v>
+      </c>
+      <c r="B196" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>1</v>
+      </c>
+      <c r="B197" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>1</v>
+      </c>
+      <c r="B198" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
+      <c r="B199" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
+      <c r="B200" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>1</v>
+      </c>
+      <c r="B201" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>1</v>
+      </c>
+      <c r="B202" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
+      <c r="B203" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>1</v>
+      </c>
+      <c r="B204" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>1</v>
+      </c>
+      <c r="B205" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>1</v>
+      </c>
+      <c r="B206" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>1</v>
+      </c>
+      <c r="B207" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>1</v>
+      </c>
+      <c r="B208" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>1</v>
+      </c>
+      <c r="B209" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
+      <c r="B210" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>1</v>
+      </c>
+      <c r="B211" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>1</v>
+      </c>
+      <c r="B214" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>1</v>
+      </c>
+      <c r="B215" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>1</v>
+      </c>
+      <c r="B216" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>1</v>
+      </c>
+      <c r="B217" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>1</v>
+      </c>
+      <c r="B218" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>1</v>
+      </c>
+      <c r="B220" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>1</v>
+      </c>
+      <c r="B221" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>1</v>
+      </c>
+      <c r="B223" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>1</v>
+      </c>
+      <c r="B224" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>1</v>
+      </c>
+      <c r="B227" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>1</v>
+      </c>
+      <c r="B228" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>1</v>
+      </c>
+      <c r="B229" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>1</v>
+      </c>
+      <c r="B230" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>1</v>
+      </c>
+      <c r="B231" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>1</v>
+      </c>
+      <c r="B232" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>1</v>
+      </c>
+      <c r="B233" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>1</v>
+      </c>
+      <c r="B234" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>1</v>
+      </c>
+      <c r="B235" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>1</v>
+      </c>
+      <c r="B236" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>1</v>
+      </c>
+      <c r="B237" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>1</v>
+      </c>
+      <c r="B238" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>1</v>
+      </c>
+      <c r="B239" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>1</v>
+      </c>
+      <c r="B240" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>1</v>
+      </c>
+      <c r="B241" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>1</v>
+      </c>
+      <c r="B242" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>1</v>
+      </c>
+      <c r="B243" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>1</v>
+      </c>
+      <c r="B244" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>1</v>
+      </c>
+      <c r="B245" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>1</v>
+      </c>
+      <c r="B246" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>1</v>
+      </c>
+      <c r="B247" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>1</v>
+      </c>
+      <c r="B248" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>1</v>
+      </c>
+      <c r="B249" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>1</v>
+      </c>
+      <c r="B250" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>1</v>
+      </c>
+      <c r="B251" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>1</v>
+      </c>
+      <c r="B252" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>1</v>
+      </c>
+      <c r="B253" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>1</v>
+      </c>
+      <c r="B254" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>1</v>
+      </c>
+      <c r="B255" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>1</v>
+      </c>
+      <c r="B256" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>1</v>
+      </c>
+      <c r="B257" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>1</v>
+      </c>
+      <c r="B258" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>1</v>
+      </c>
+      <c r="B259" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>1</v>
+      </c>
+      <c r="B260" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>1</v>
+      </c>
+      <c r="B261" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>1</v>
+      </c>
+      <c r="B262" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>1</v>
+      </c>
+      <c r="B263" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>1</v>
+      </c>
+      <c r="B264" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>1</v>
+      </c>
+      <c r="B265" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>1</v>
+      </c>
+      <c r="B266" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>1</v>
+      </c>
+      <c r="B267" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>1</v>
+      </c>
+      <c r="B268" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>1</v>
+      </c>
+      <c r="B269" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>1</v>
+      </c>
+      <c r="B270" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>1</v>
+      </c>
+      <c r="B271" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>1</v>
+      </c>
+      <c r="B272" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>1</v>
+      </c>
+      <c r="B273" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>1</v>
+      </c>
+      <c r="B274" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>1</v>
+      </c>
+      <c r="B275" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>1</v>
+      </c>
+      <c r="B276" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>1</v>
+      </c>
+      <c r="B277" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>1</v>
+      </c>
+      <c r="B278" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>1</v>
+      </c>
+      <c r="B279" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>1</v>
+      </c>
+      <c r="B280" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>1</v>
+      </c>
+      <c r="B281" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>1</v>
+      </c>
+      <c r="B282" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>1</v>
+      </c>
+      <c r="B283" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>1</v>
+      </c>
+      <c r="B284" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>1</v>
+      </c>
+      <c r="B285" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>1</v>
+      </c>
+      <c r="B286" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>1</v>
+      </c>
+      <c r="B287" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>1</v>
+      </c>
+      <c r="B288" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>1</v>
+      </c>
+      <c r="B289" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>1</v>
+      </c>
+      <c r="B290" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>1</v>
+      </c>
+      <c r="B291" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>1</v>
+      </c>
+      <c r="B292" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>1</v>
+      </c>
+      <c r="B293" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>1</v>
+      </c>
+      <c r="B294" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>1</v>
+      </c>
+      <c r="B295" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>1</v>
+      </c>
+      <c r="B296" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>1</v>
+      </c>
+      <c r="B297" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>1</v>
+      </c>
+      <c r="B298" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>1</v>
+      </c>
+      <c r="B299" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>1</v>
+      </c>
+      <c r="B300" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>1</v>
+      </c>
+      <c r="B301" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>1</v>
+      </c>
+      <c r="B302" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>1</v>
+      </c>
+      <c r="B303" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>1</v>
+      </c>
+      <c r="B304" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>1</v>
+      </c>
+      <c r="B305" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>1</v>
+      </c>
+      <c r="B306" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>1</v>
+      </c>
+      <c r="B307" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>1</v>
+      </c>
+      <c r="B308" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>1</v>
+      </c>
+      <c r="B309" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>1</v>
+      </c>
+      <c r="B310" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>1</v>
+      </c>
+      <c r="B311" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>1</v>
+      </c>
+      <c r="B312" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>1</v>
+      </c>
+      <c r="B313" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>1</v>
+      </c>
+      <c r="B314" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>1</v>
+      </c>
+      <c r="B315" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>1</v>
+      </c>
+      <c r="B316" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>1</v>
+      </c>
+      <c r="B317" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>1</v>
+      </c>
+      <c r="B318" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>1</v>
+      </c>
+      <c r="B319" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B319">
+    <sortCondition ref="A1:A319"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>